--- a/OnBoard/output/trust/bio/Bio_Trust_49.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_49.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q200"/>
+  <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F2">
@@ -477,14 +477,19 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>128</v>
+        <v>463</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>773</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>MEDSE-2</t>
         </is>
       </c>
       <c r="L2">
@@ -494,7 +499,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,7 +519,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F3">
@@ -524,14 +529,19 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>78</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L3">
@@ -541,7 +551,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -561,7 +571,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F4">
@@ -571,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -588,7 +598,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,7 +618,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F5">
@@ -618,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -635,7 +645,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -655,7 +665,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F6">
@@ -665,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -682,7 +692,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -702,7 +712,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F7">
@@ -712,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -729,7 +739,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -749,7 +759,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F8">
@@ -759,19 +769,14 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>272</v>
+        <v>116</v>
       </c>
       <c r="I8">
-        <v>179</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L8">
@@ -781,7 +786,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -801,7 +806,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F9">
@@ -811,19 +816,14 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="I9">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L9">
@@ -833,7 +833,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F10">
@@ -863,14 +863,14 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L10">
@@ -880,7 +880,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F11">
@@ -910,14 +910,14 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L11">
@@ -927,7 +927,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -942,12 +942,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F12">
@@ -957,19 +957,14 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="I12">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L12">
@@ -979,7 +974,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -994,12 +989,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F13">
@@ -1009,19 +1004,14 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I13">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>SOSEF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L13">
@@ -1031,7 +1021,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1046,12 +1036,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F14">
@@ -1061,14 +1051,14 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L14">
@@ -1078,7 +1068,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1093,12 +1083,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F15">
@@ -1108,14 +1098,14 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L15">
@@ -1125,7 +1115,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1140,12 +1130,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F16">
@@ -1155,14 +1145,14 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L16">
@@ -1172,7 +1162,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1187,12 +1177,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F17">
@@ -1202,14 +1192,14 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L17">
@@ -1219,7 +1209,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1234,12 +1224,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F18">
@@ -1249,14 +1239,14 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L18">
@@ -1266,7 +1256,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1281,12 +1271,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F19">
@@ -1296,14 +1286,14 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L19">
@@ -1313,7 +1303,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1328,12 +1318,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F20">
@@ -1343,10 +1333,10 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1360,7 +1350,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1375,12 +1365,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F21">
@@ -1390,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1407,7 +1397,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1422,12 +1412,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F22">
@@ -1437,14 +1427,14 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I22">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L22">
@@ -1454,7 +1444,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1469,12 +1459,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F23">
@@ -1484,14 +1474,14 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I23">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L23">
@@ -1501,7 +1491,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1516,12 +1506,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F24">
@@ -1531,14 +1521,14 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L24">
@@ -1548,7 +1538,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1563,12 +1553,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F25">
@@ -1578,19 +1568,14 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="I25">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L25">
@@ -1600,7 +1585,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1615,12 +1600,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F26">
@@ -1630,19 +1615,14 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L26">
@@ -1652,7 +1632,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1682,19 +1662,14 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I27">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L27">
@@ -1704,7 +1679,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1737,7 +1712,7 @@
         <v>30</v>
       </c>
       <c r="I28">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1751,7 +1726,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1781,10 +1756,10 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I29">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1798,7 +1773,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1828,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I30">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1845,7 +1820,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1875,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1892,7 +1867,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1925,16 +1900,11 @@
         <v>31</v>
       </c>
       <c r="I32">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L32">
@@ -1944,7 +1914,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1974,19 +1944,14 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I33">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L33">
@@ -1996,7 +1961,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2026,10 +1991,10 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2043,7 +2008,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2073,19 +2038,14 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I35">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L35">
@@ -2095,7 +2055,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2125,19 +2085,14 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I36">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L36">
@@ -2147,7 +2102,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2177,19 +2132,14 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I37">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L37">
@@ -2199,7 +2149,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2229,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I38">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2246,7 +2196,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2279,11 +2229,16 @@
         <v>27</v>
       </c>
       <c r="I39">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L39">
@@ -2293,7 +2248,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2323,10 +2278,10 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I40">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2345,7 +2300,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2375,14 +2330,19 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I41">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L41">
@@ -2392,7 +2352,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2422,14 +2382,19 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I42">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L42">
@@ -2439,7 +2404,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2469,14 +2434,19 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I43">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L43">
@@ -2486,7 +2456,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2516,10 +2486,10 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I44">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2538,7 +2508,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2568,10 +2538,10 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I45">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2590,7 +2560,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2620,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I46">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2642,7 +2612,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2672,10 +2642,10 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I47">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2694,7 +2664,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2724,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I48">
         <v>24</v>
@@ -2746,7 +2716,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2776,10 +2746,10 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I49">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2798,7 +2768,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2828,14 +2798,19 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I50">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L50">
@@ -2845,7 +2820,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2875,14 +2850,19 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L51">
@@ -2892,7 +2872,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2922,14 +2902,19 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L52">
@@ -2939,7 +2924,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2969,14 +2954,19 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I53">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L53">
@@ -2986,7 +2976,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3016,10 +3006,10 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I54">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3028,7 +3018,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L54">
@@ -3038,7 +3028,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3068,14 +3058,19 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I55">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L55">
@@ -3085,7 +3080,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3115,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I56">
         <v>25</v>
@@ -3127,7 +3122,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L56">
@@ -3137,7 +3132,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3167,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I57">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3179,7 +3174,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L57">
@@ -3189,7 +3184,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3219,14 +3214,19 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L58">
@@ -3236,7 +3236,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3266,10 +3266,10 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I59">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L59">
@@ -3288,7 +3288,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PENAZTC</t>
         </is>
       </c>
       <c r="F60">
@@ -3318,19 +3318,14 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="I60">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L60">
@@ -3340,7 +3335,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3360,7 +3355,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PENAZTC</t>
         </is>
       </c>
       <c r="F61">
@@ -3370,19 +3365,14 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I61">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L61">
@@ -3392,7 +3382,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3412,7 +3402,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PENAZTC</t>
         </is>
       </c>
       <c r="F62">
@@ -3422,19 +3412,14 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I62">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L62">
@@ -3444,7 +3429,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3464,7 +3449,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F63">
@@ -3477,11 +3462,16 @@
         <v>27</v>
       </c>
       <c r="I63">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L63">
@@ -3491,7 +3481,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3511,7 +3501,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F64">
@@ -3521,14 +3511,19 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I64">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L64">
@@ -3538,7 +3533,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3558,7 +3553,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F65">
@@ -3568,14 +3563,14 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I65">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L65">
@@ -3585,7 +3580,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3605,7 +3600,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F66">
@@ -3615,19 +3610,19 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="I66">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L66">
@@ -3637,7 +3632,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3657,7 +3652,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F67">
@@ -3667,19 +3662,19 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I67">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L67">
@@ -3689,7 +3684,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3709,7 +3704,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F68">
@@ -3719,14 +3714,19 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I68">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L68">
@@ -3736,7 +3736,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F69">
@@ -3766,14 +3766,19 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="I69">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L69">
@@ -3783,7 +3788,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3803,7 +3808,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F70">
@@ -3813,19 +3818,19 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="I70">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L70">
@@ -3835,7 +3840,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3855,7 +3860,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F71">
@@ -3865,14 +3870,19 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="I71">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L71">
@@ -3882,7 +3892,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3902,7 +3912,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F72">
@@ -3912,19 +3922,19 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="I72">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L72">
@@ -3934,7 +3944,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3949,12 +3959,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F73">
@@ -3964,14 +3974,14 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="I73">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L73">
@@ -3981,7 +3991,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3996,12 +4006,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F74">
@@ -4011,14 +4021,14 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="I74">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L74">
@@ -4028,7 +4038,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4043,12 +4053,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PENAZTC</t>
         </is>
       </c>
       <c r="F75">
@@ -4058,19 +4068,14 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I75">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L75">
@@ -4080,7 +4085,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4095,7 +4100,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4110,14 +4115,19 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I76">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L76">
@@ -4127,7 +4137,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4142,7 +4152,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4157,14 +4167,19 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I77">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L77">
@@ -4174,7 +4189,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4189,7 +4204,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4204,10 +4219,10 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I78">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -4226,7 +4241,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4241,7 +4256,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4263,7 +4278,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L79">
@@ -4273,7 +4293,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4288,7 +4308,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4303,10 +4323,10 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I80">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -4325,7 +4345,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4340,7 +4360,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4355,10 +4375,10 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I81">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4377,7 +4397,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4392,7 +4412,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4407,14 +4427,19 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I82">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L82">
@@ -4424,7 +4449,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4439,7 +4464,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4454,14 +4479,19 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I83">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L83">
@@ -4471,7 +4501,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4486,7 +4516,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4501,14 +4531,19 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I84">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L84">
@@ -4518,7 +4553,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4533,7 +4568,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4548,14 +4583,19 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I85">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L85">
@@ -4565,7 +4605,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4580,7 +4620,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4595,10 +4635,10 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I86">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4617,7 +4657,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4632,7 +4672,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4647,10 +4687,10 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I87">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4669,7 +4709,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4684,7 +4724,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4699,10 +4739,10 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I88">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -4721,7 +4761,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4736,7 +4776,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4751,14 +4791,19 @@
         <v>1</v>
       </c>
       <c r="H89">
+        <v>38</v>
+      </c>
+      <c r="I89">
         <v>28</v>
       </c>
-      <c r="I89">
-        <v>15</v>
-      </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L89">
@@ -4768,7 +4813,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4783,7 +4828,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4798,14 +4843,19 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I90">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L90">
@@ -4815,7 +4865,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4830,7 +4880,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4845,14 +4895,19 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I91">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L91">
@@ -4862,7 +4917,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4877,7 +4932,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4892,14 +4947,19 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I92">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L92">
@@ -4909,7 +4969,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4924,7 +4984,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4939,10 +4999,10 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I93">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4961,7 +5021,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4976,7 +5036,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4994,7 +5054,7 @@
         <v>36</v>
       </c>
       <c r="I94">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -5013,7 +5073,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5028,7 +5088,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5043,14 +5103,19 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I95">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L95">
@@ -5060,7 +5125,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5075,7 +5140,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5090,14 +5155,19 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I96">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L96">
@@ -5107,7 +5177,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5122,7 +5192,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5137,10 +5207,10 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I97">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -5149,7 +5219,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L97">
@@ -5159,7 +5229,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5174,7 +5244,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5189,14 +5259,19 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I98">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L98">
@@ -5206,7 +5281,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5221,12 +5296,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F99">
@@ -5236,14 +5311,19 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I99">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L99">
@@ -5253,7 +5333,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5283,10 +5363,10 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I100">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -5300,7 +5380,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5333,16 +5413,11 @@
         <v>32</v>
       </c>
       <c r="I101">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L101">
@@ -5352,7 +5427,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5382,10 +5457,10 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I102">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -5399,7 +5474,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5429,10 +5504,10 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I103">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -5446,7 +5521,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5476,10 +5551,10 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I104">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -5493,7 +5568,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5523,19 +5598,14 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I105">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L105">
@@ -5545,7 +5615,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5575,19 +5645,14 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I106">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L106">
@@ -5597,7 +5662,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5627,19 +5692,14 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I107">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L107">
@@ -5649,7 +5709,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5679,19 +5739,14 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I108">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L108">
@@ -5701,7 +5756,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5731,10 +5786,10 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I109">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -5748,7 +5803,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5778,10 +5833,10 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I110">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -5795,7 +5850,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5828,16 +5883,11 @@
         <v>31</v>
       </c>
       <c r="I111">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L111">
@@ -5847,7 +5897,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5877,19 +5927,14 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I112">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L112">
@@ -5899,7 +5944,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5929,10 +5974,10 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I113">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -5946,7 +5991,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5976,19 +6021,14 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I114">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L114">
@@ -5998,7 +6038,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6028,19 +6068,14 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I115">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L115">
@@ -6050,7 +6085,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6080,19 +6115,14 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I116">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L116">
@@ -6102,7 +6132,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6132,10 +6162,10 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I117">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -6149,7 +6179,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6179,19 +6209,14 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I118">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L118">
@@ -6201,7 +6226,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6231,10 +6256,10 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I119">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -6248,7 +6273,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6278,19 +6303,14 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I120">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L120">
@@ -6300,7 +6320,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6333,7 +6353,7 @@
         <v>29</v>
       </c>
       <c r="I121">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -6347,7 +6367,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6377,10 +6397,10 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I122">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -6394,7 +6414,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6424,10 +6444,10 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I123">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -6441,7 +6461,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6471,19 +6491,14 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I124">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L124">
@@ -6493,7 +6508,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6523,10 +6538,10 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I125">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -6540,7 +6555,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6560,7 +6575,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F126">
@@ -6570,14 +6585,19 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I126">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L126">
@@ -6587,7 +6607,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6607,7 +6627,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F127">
@@ -6617,10 +6637,10 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I127">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -6634,7 +6654,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6654,7 +6674,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F128">
@@ -6664,14 +6684,19 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I128">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L128">
@@ -6681,7 +6706,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6701,7 +6726,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F129">
@@ -6711,14 +6736,19 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I129">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L129">
@@ -6728,7 +6758,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6748,7 +6778,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F130">
@@ -6758,10 +6788,10 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I130">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -6770,7 +6800,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L130">
@@ -6780,7 +6810,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6800,7 +6830,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F131">
@@ -6810,14 +6840,14 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="I131">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L131">
@@ -6827,7 +6857,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6847,7 +6877,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F132">
@@ -6857,19 +6887,14 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I132">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L132">
@@ -6879,7 +6904,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6899,7 +6924,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>PENAZTC</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F133">
@@ -6909,14 +6934,14 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="I133">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L133">
@@ -6926,7 +6951,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6946,7 +6971,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F134">
@@ -6956,14 +6981,14 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I134">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L134">
@@ -6973,7 +6998,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6993,7 +7018,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F135">
@@ -7003,14 +7028,14 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="I135">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L135">
@@ -7020,7 +7045,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7040,7 +7065,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F136">
@@ -7050,19 +7075,14 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="I136">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L136">
@@ -7072,7 +7092,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7092,7 +7112,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F137">
@@ -7102,14 +7122,14 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I137">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L137">
@@ -7119,7 +7139,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7139,7 +7159,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F138">
@@ -7149,14 +7169,19 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I138">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L138">
@@ -7166,7 +7191,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7186,7 +7211,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F139">
@@ -7196,14 +7221,19 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="I139">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L139">
@@ -7213,7 +7243,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7233,7 +7263,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F140">
@@ -7243,14 +7273,19 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I140">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L140">
@@ -7260,7 +7295,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7280,7 +7315,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F141">
@@ -7290,14 +7325,19 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I141">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L141">
@@ -7307,7 +7347,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7327,7 +7367,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F142">
@@ -7337,10 +7377,10 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="I142">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -7349,7 +7389,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L142">
@@ -7359,7 +7399,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7379,7 +7419,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F143">
@@ -7389,10 +7429,10 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="I143">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -7401,7 +7441,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L143">
@@ -7411,7 +7451,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7431,7 +7471,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F144">
@@ -7441,10 +7481,10 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="I144">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -7453,7 +7493,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L144">
@@ -7463,7 +7503,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7483,7 +7523,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F145">
@@ -7493,10 +7533,10 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="I145">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -7505,7 +7545,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L145">
@@ -7515,7 +7555,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7530,12 +7570,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F146">
@@ -7545,10 +7585,10 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>35</v>
+        <v>319</v>
       </c>
       <c r="I146">
-        <v>18</v>
+        <v>372</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -7557,17 +7597,22 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L146">
         <v>0</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>SS8019</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7582,12 +7627,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F147">
@@ -7597,24 +7642,34 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="I147">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
       <c r="L147">
         <v>0</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>SS8020</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7634,7 +7689,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F148">
@@ -7644,10 +7699,10 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>26</v>
+        <v>314</v>
       </c>
       <c r="I148">
-        <v>9</v>
+        <v>309</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -7656,17 +7711,22 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L148">
         <v>0</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>SS8021</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7686,7 +7746,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F149">
@@ -7696,24 +7756,34 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="I149">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L149">
         <v>0</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>SS8022</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7733,7 +7803,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F150">
@@ -7743,24 +7813,34 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="I150">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
       <c r="L150">
         <v>0</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>SS8023</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7775,12 +7855,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F151">
@@ -7790,19 +7870,14 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="I151">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L151">
@@ -7812,7 +7887,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7827,12 +7902,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F152">
@@ -7842,14 +7917,19 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I152">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L152">
@@ -7859,7 +7939,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7874,12 +7954,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F153">
@@ -7889,14 +7969,19 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I153">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L153">
@@ -7906,7 +7991,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7921,12 +8006,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F154">
@@ -7936,10 +8021,10 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I154">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -7958,7 +8043,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -7973,12 +8058,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F155">
@@ -7988,14 +8073,19 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I155">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L155">
@@ -8005,7 +8095,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8020,12 +8110,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F156">
@@ -8035,14 +8125,19 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I156">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L156">
@@ -8052,7 +8147,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8067,12 +8162,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F157">
@@ -8082,14 +8177,19 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I157">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L157">
@@ -8099,7 +8199,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8114,12 +8214,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F158">
@@ -8129,10 +8229,10 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I158">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -8151,7 +8251,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8166,12 +8266,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F159">
@@ -8181,19 +8281,14 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I159">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L159">
@@ -8203,7 +8298,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8218,12 +8313,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F160">
@@ -8240,12 +8335,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L160">
@@ -8255,7 +8345,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8270,12 +8360,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F161">
@@ -8285,14 +8375,19 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I161">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L161">
@@ -8302,7 +8397,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8317,12 +8412,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F162">
@@ -8332,10 +8427,10 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I162">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -8354,7 +8449,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8369,12 +8464,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F163">
@@ -8384,10 +8479,10 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I163">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -8406,7 +8501,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8421,12 +8516,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F164">
@@ -8436,10 +8531,10 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I164">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -8458,7 +8553,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8473,12 +8568,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F165">
@@ -8488,10 +8583,10 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I165">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -8510,7 +8605,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8525,12 +8620,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F166">
@@ -8540,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I166">
         <v>10</v>
@@ -8552,7 +8647,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L166">
@@ -8562,7 +8657,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8577,12 +8672,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F167">
@@ -8592,10 +8687,10 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I167">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -8609,7 +8704,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8624,12 +8719,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F168">
@@ -8639,10 +8734,10 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I168">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -8661,7 +8756,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8676,12 +8771,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F169">
@@ -8691,10 +8786,10 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I169">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -8708,7 +8803,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8723,12 +8818,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F170">
@@ -8738,14 +8833,19 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I170">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L170">
@@ -8755,7 +8855,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8770,12 +8870,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F171">
@@ -8785,14 +8885,19 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I171">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L171">
@@ -8802,7 +8907,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8817,12 +8922,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F172">
@@ -8832,14 +8937,19 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I172">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L172">
@@ -8849,7 +8959,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8864,12 +8974,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F173">
@@ -8879,10 +8989,10 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I173">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -8890,1335 +9000,6 @@
         </is>
       </c>
       <c r="L173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174">
-        <v>30</v>
-      </c>
-      <c r="I174">
-        <v>16</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-      <c r="H175">
-        <v>30</v>
-      </c>
-      <c r="I175">
-        <v>14</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F176">
-        <v>1</v>
-      </c>
-      <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="H176">
-        <v>31</v>
-      </c>
-      <c r="I176">
-        <v>15</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
-      <c r="G177">
-        <v>1</v>
-      </c>
-      <c r="H177">
-        <v>25</v>
-      </c>
-      <c r="I177">
-        <v>11</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F178">
-        <v>1</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
-      </c>
-      <c r="H178">
-        <v>27</v>
-      </c>
-      <c r="I178">
-        <v>12</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F179">
-        <v>1</v>
-      </c>
-      <c r="G179">
-        <v>1</v>
-      </c>
-      <c r="H179">
-        <v>30</v>
-      </c>
-      <c r="I179">
-        <v>17</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F180">
-        <v>1</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
-      <c r="H180">
-        <v>24</v>
-      </c>
-      <c r="I180">
-        <v>8</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F181">
-        <v>1</v>
-      </c>
-      <c r="G181">
-        <v>1</v>
-      </c>
-      <c r="H181">
-        <v>24</v>
-      </c>
-      <c r="I181">
-        <v>10</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-      <c r="H182">
-        <v>24</v>
-      </c>
-      <c r="I182">
-        <v>9</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
-      <c r="G183">
-        <v>1</v>
-      </c>
-      <c r="H183">
-        <v>25</v>
-      </c>
-      <c r="I183">
-        <v>9</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="G184">
-        <v>1</v>
-      </c>
-      <c r="H184">
-        <v>29</v>
-      </c>
-      <c r="I184">
-        <v>14</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F185">
-        <v>1</v>
-      </c>
-      <c r="G185">
-        <v>1</v>
-      </c>
-      <c r="H185">
-        <v>30</v>
-      </c>
-      <c r="I185">
-        <v>14</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F186">
-        <v>1</v>
-      </c>
-      <c r="G186">
-        <v>1</v>
-      </c>
-      <c r="H186">
-        <v>28</v>
-      </c>
-      <c r="I186">
-        <v>13</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F187">
-        <v>1</v>
-      </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
-      <c r="H187">
-        <v>29</v>
-      </c>
-      <c r="I187">
-        <v>15</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="G188">
-        <v>1</v>
-      </c>
-      <c r="H188">
-        <v>27</v>
-      </c>
-      <c r="I188">
-        <v>13</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F189">
-        <v>1</v>
-      </c>
-      <c r="G189">
-        <v>1</v>
-      </c>
-      <c r="H189">
-        <v>25</v>
-      </c>
-      <c r="I189">
-        <v>9</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F190">
-        <v>1</v>
-      </c>
-      <c r="G190">
-        <v>1</v>
-      </c>
-      <c r="H190">
-        <v>32</v>
-      </c>
-      <c r="I190">
-        <v>19</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F191">
-        <v>1</v>
-      </c>
-      <c r="G191">
-        <v>1</v>
-      </c>
-      <c r="H191">
-        <v>30</v>
-      </c>
-      <c r="I191">
-        <v>16</v>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F192">
-        <v>1</v>
-      </c>
-      <c r="G192">
-        <v>1</v>
-      </c>
-      <c r="H192">
-        <v>30</v>
-      </c>
-      <c r="I192">
-        <v>16</v>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-      <c r="G193">
-        <v>1</v>
-      </c>
-      <c r="H193">
-        <v>36</v>
-      </c>
-      <c r="I193">
-        <v>30</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F194">
-        <v>1</v>
-      </c>
-      <c r="G194">
-        <v>1</v>
-      </c>
-      <c r="H194">
-        <v>32</v>
-      </c>
-      <c r="I194">
-        <v>19</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L194">
-        <v>0</v>
-      </c>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F195">
-        <v>1</v>
-      </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-      <c r="H195">
-        <v>26</v>
-      </c>
-      <c r="I195">
-        <v>14</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F196">
-        <v>1</v>
-      </c>
-      <c r="G196">
-        <v>1</v>
-      </c>
-      <c r="H196">
-        <v>26</v>
-      </c>
-      <c r="I196">
-        <v>7</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>GOBINIG</t>
-        </is>
-      </c>
-      <c r="F197">
-        <v>1</v>
-      </c>
-      <c r="G197">
-        <v>1</v>
-      </c>
-      <c r="H197">
-        <v>99</v>
-      </c>
-      <c r="I197">
-        <v>-1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>CHLAGLA</t>
-        </is>
-      </c>
-      <c r="F198">
-        <v>1</v>
-      </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-      <c r="H198">
-        <v>51</v>
-      </c>
-      <c r="I198">
-        <v>13</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>CHLAGLA</t>
-        </is>
-      </c>
-      <c r="F199">
-        <v>1</v>
-      </c>
-      <c r="G199">
-        <v>1</v>
-      </c>
-      <c r="H199">
-        <v>51</v>
-      </c>
-      <c r="I199">
-        <v>15</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>AEQUOPE</t>
-        </is>
-      </c>
-      <c r="F200">
-        <v>1</v>
-      </c>
-      <c r="G200">
-        <v>1</v>
-      </c>
-      <c r="H200">
-        <v>35</v>
-      </c>
-      <c r="I200">
-        <v>5</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L200">
         <v>0</v>
       </c>
     </row>
